--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
   <si>
     <t>Yakiniku Optimization Problem</t>
   </si>
@@ -196,6 +196,99 @@
   </si>
   <si>
     <t>线段树</t>
+  </si>
+  <si>
+    <t>Make It Ascending</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 86</t>
+  </si>
+  <si>
+    <t>Strange Function</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 85</t>
+  </si>
+  <si>
+    <t>Regular Number</t>
+  </si>
+  <si>
+    <t>hdu</t>
+  </si>
+  <si>
+    <t>2016ACM/ICPC亚洲区大连站-重现赛</t>
+  </si>
+  <si>
+    <t>字符串匹配shiftand算法</t>
+  </si>
+  <si>
+    <t>Pond Skater</t>
+  </si>
+  <si>
+    <t>abc170</t>
+  </si>
+  <si>
+    <t>最短路</t>
+  </si>
+  <si>
+    <t>Strivore</t>
+  </si>
+  <si>
+    <t>abc171</t>
+  </si>
+  <si>
+    <t>组合数学</t>
+  </si>
+  <si>
+    <t>The LCIS on the Tree</t>
+  </si>
+  <si>
+    <t>2013 ACM/ICPC Asia Regional Online —— Warmup2</t>
+  </si>
+  <si>
+    <t>树链剖分</t>
+  </si>
+  <si>
+    <t>Food and Productivity</t>
+  </si>
+  <si>
+    <t>二分套树状数组</t>
+  </si>
+  <si>
+    <t>思考题</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>vjudge</t>
+  </si>
+  <si>
+    <t>2015年四川省程序ACM设计竞赛</t>
+  </si>
+  <si>
+    <t>最小点权覆盖</t>
+  </si>
+  <si>
+    <t>Intervals on Tree</t>
+  </si>
+  <si>
+    <t>abc173</t>
+  </si>
+  <si>
+    <t>多项式</t>
+  </si>
+  <si>
+    <t>华为杯中国地质大学(武汉)第十七届ICPC程序设计大赛暨 华中地区部分高校第十五届ICPC邀请赛竞赛</t>
+  </si>
+  <si>
+    <t>组合数取模非质数</t>
+  </si>
+  <si>
+    <t>快速质因数分解</t>
+  </si>
+  <si>
+    <t>CRT</t>
   </si>
 </sst>
 </file>
@@ -203,17 +296,120 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,15 +421,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,32 +444,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,74 +458,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -370,13 +468,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,169 +606,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,80 +659,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -661,6 +685,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -669,145 +767,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -818,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,13 +1267,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="48" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
@@ -1183,7 +1281,8 @@
     <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -1459,7 +1558,7 @@
       <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1537,6 +1636,161 @@
       </c>
       <c r="F26" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1544,6 +1798,16 @@
     <hyperlink ref="A7" r:id="rId1" display="Perils in Parallel" tooltip="https://atcoder.jp/contests/abc155/tasks/abc155_f"/>
     <hyperlink ref="A9" r:id="rId2" display=" Robot Arms" tooltip="https://atcoder.jp/contests/keyence2020/tasks/keyence2020_b"/>
     <hyperlink ref="C21" r:id="rId3" display="“Shopee杯” e起来编程暨武汉大学2020年大学生程序设计大赛（网络预选赛）"/>
+    <hyperlink ref="A27" r:id="rId4" display="Make It Ascending" tooltip="https://codeforces.com/contest/1342/problem/F"/>
+    <hyperlink ref="A29" r:id="rId5" display="Regular Number" tooltip="http://acm.hdu.edu.cn/showproblem.php?pid=5972"/>
+    <hyperlink ref="C29" r:id="rId6" display="2016ACM/ICPC亚洲区大连站-重现赛" tooltip="http://acm.hdu.edu.cn/search.php?field=problem&amp;key=2016ACM/ICPC%D1%C7%D6%DE%C7%F8%B4%F3%C1%AC%D5%BE-%D6%D8%CF%D6%C8%FC%A3%A8%B8%D0%D0%BB%B4%F3%C1%AC%BA%A3%CA%C2%B4%F3%D1%A7%A3%A9&amp;source=1&amp;searchmode=source"/>
+    <hyperlink ref="A30" r:id="rId7" display="Pond Skater" tooltip="https://atcoder.jp/contests/abc170/tasks/abc170_f"/>
+    <hyperlink ref="A32" r:id="rId8" display="The LCIS on the Tree"/>
+    <hyperlink ref="C32" r:id="rId9" display="2013 ACM/ICPC Asia Regional Online —— Warmup2" tooltip="http://acm.hdu.edu.cn/search.php?field=problem&amp;key=2013+ACM/ICPC+Asia+Regional+Online+%A1%AA%A1%AA+Warmup2&amp;source=1&amp;searchmode=source"/>
+    <hyperlink ref="A33" r:id="rId10" display="Food and Productivity"/>
+    <hyperlink ref="C33" r:id="rId9" display="2013 ACM/ICPC Asia Regional Online —— Warmup2" tooltip="http://acm.hdu.edu.cn/search.php?field=problem&amp;key=2013+ACM/ICPC+Asia+Regional+Online+%A1%AA%A1%AA+Warmup2&amp;source=1&amp;searchmode=source"/>
+    <hyperlink ref="A35" r:id="rId11" display="Intervals on Tree"/>
+    <hyperlink ref="A36" r:id="rId12" display="多项式" tooltip="https://ac.nowcoder.com/acm/contest/5889/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bennettz\Desktop\bennettz\git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E8D39-03EF-4CF0-8C48-CEB3E74ACEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>Yakiniku Optimization Problem</t>
   </si>
@@ -289,19 +295,25 @@
   </si>
   <si>
     <t>CRT</t>
+  </si>
+  <si>
+    <t>atcoder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc177</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I hate Shortest Path Problem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,348 +324,34 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -661,255 +359,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,62 +375,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1261,31 +676,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1344,7 +759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1355,7 +770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1386,7 +801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1400,7 +815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1414,7 +829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1425,7 +840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1442,7 +857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1453,7 +868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1464,7 +879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1478,7 +893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1492,7 +907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1506,7 +921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1520,7 +935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1537,7 +952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1551,7 +966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1565,7 +980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1579,7 +994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1593,7 +1008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -1607,7 +1022,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -1621,7 +1036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -1638,7 +1053,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:5">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1652,7 +1067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:6">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -1669,7 +1084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -1683,7 +1098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -1697,7 +1112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -1711,7 +1126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -1725,7 +1140,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -1742,7 +1157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
@@ -1756,7 +1171,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
@@ -1770,7 +1185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
@@ -1793,58 +1208,70 @@
         <v>90</v>
       </c>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="Perils in Parallel" tooltip="https://atcoder.jp/contests/abc155/tasks/abc155_f"/>
-    <hyperlink ref="A9" r:id="rId2" display=" Robot Arms" tooltip="https://atcoder.jp/contests/keyence2020/tasks/keyence2020_b"/>
-    <hyperlink ref="C21" r:id="rId3" display="“Shopee杯” e起来编程暨武汉大学2020年大学生程序设计大赛（网络预选赛）"/>
-    <hyperlink ref="A27" r:id="rId4" display="Make It Ascending" tooltip="https://codeforces.com/contest/1342/problem/F"/>
-    <hyperlink ref="A29" r:id="rId5" display="Regular Number" tooltip="http://acm.hdu.edu.cn/showproblem.php?pid=5972"/>
-    <hyperlink ref="C29" r:id="rId6" display="2016ACM/ICPC亚洲区大连站-重现赛" tooltip="http://acm.hdu.edu.cn/search.php?field=problem&amp;key=2016ACM/ICPC%D1%C7%D6%DE%C7%F8%B4%F3%C1%AC%D5%BE-%D6%D8%CF%D6%C8%FC%A3%A8%B8%D0%D0%BB%B4%F3%C1%AC%BA%A3%CA%C2%B4%F3%D1%A7%A3%A9&amp;source=1&amp;searchmode=source"/>
-    <hyperlink ref="A30" r:id="rId7" display="Pond Skater" tooltip="https://atcoder.jp/contests/abc170/tasks/abc170_f"/>
-    <hyperlink ref="A32" r:id="rId8" display="The LCIS on the Tree"/>
-    <hyperlink ref="C32" r:id="rId9" display="2013 ACM/ICPC Asia Regional Online —— Warmup2" tooltip="http://acm.hdu.edu.cn/search.php?field=problem&amp;key=2013+ACM/ICPC+Asia+Regional+Online+%A1%AA%A1%AA+Warmup2&amp;source=1&amp;searchmode=source"/>
-    <hyperlink ref="A33" r:id="rId10" display="Food and Productivity"/>
-    <hyperlink ref="C33" r:id="rId9" display="2013 ACM/ICPC Asia Regional Online —— Warmup2" tooltip="http://acm.hdu.edu.cn/search.php?field=problem&amp;key=2013+ACM/ICPC+Asia+Regional+Online+%A1%AA%A1%AA+Warmup2&amp;source=1&amp;searchmode=source"/>
-    <hyperlink ref="A35" r:id="rId11" display="Intervals on Tree"/>
-    <hyperlink ref="A36" r:id="rId12" display="多项式" tooltip="https://ac.nowcoder.com/acm/contest/5889/F"/>
+    <hyperlink ref="A7" r:id="rId1" tooltip="https://atcoder.jp/contests/abc155/tasks/abc155_f" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A9" r:id="rId2" tooltip="https://atcoder.jp/contests/keyence2020/tasks/keyence2020_b" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A27" r:id="rId4" tooltip="https://codeforces.com/contest/1342/problem/F" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A29" r:id="rId5" tooltip="http://acm.hdu.edu.cn/showproblem.php?pid=5972" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C29" r:id="rId6" tooltip="http://acm.hdu.edu.cn/search.php?field=problem&amp;key=2016ACM/ICPC%D1%C7%D6%DE%C7%F8%B4%F3%C1%AC%D5%BE-%D6%D8%CF%D6%C8%FC%A3%A8%B8%D0%D0%BB%B4%F3%C1%AC%BA%A3%CA%C2%B4%F3%D1%A7%A3%A9&amp;source=1&amp;searchmode=source" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A30" r:id="rId7" tooltip="https://atcoder.jp/contests/abc170/tasks/abc170_f" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A32" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C32" r:id="rId9" tooltip="http://acm.hdu.edu.cn/search.php?field=problem&amp;key=2013+ACM/ICPC+Asia+Regional+Online+%A1%AA%A1%AA+Warmup2&amp;source=1&amp;searchmode=source" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A33" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C33" r:id="rId11" tooltip="http://acm.hdu.edu.cn/search.php?field=problem&amp;key=2013+ACM/ICPC+Asia+Regional+Online+%A1%AA%A1%AA+Warmup2&amp;source=1&amp;searchmode=source" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A36" r:id="rId13" tooltip="https://ac.nowcoder.com/acm/contest/5889/F" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bennettz\Desktop\bennettz\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E8D39-03EF-4CF0-8C48-CEB3E74ACEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7195D5B-3DC5-4C35-8390-DAE60772BC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
   <si>
     <t>Yakiniku Optimization Problem</t>
   </si>
@@ -306,6 +307,28 @@
   </si>
   <si>
     <t>I hate Shortest Path Problem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bricks</t>
+  </si>
+  <si>
+    <t>coderforces</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codeforces Round #668</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtCoder Beginner Contest 178</t>
+  </si>
+  <si>
+    <t>Contrast</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -682,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H37"/>
+  <dimension ref="A2:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1219,6 +1242,34 @@
         <v>92</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1240,7 +1291,7 @@
     <hyperlink ref="A36" r:id="rId13" tooltip="https://ac.nowcoder.com/acm/contest/5889/F" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bennettz\Desktop\bennettz\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7195D5B-3DC5-4C35-8390-DAE60772BC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9317003-C4ED-480C-82B8-09AB4456EAB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
   <si>
     <t>Yakiniku Optimization Problem</t>
   </si>
@@ -329,6 +328,29 @@
   </si>
   <si>
     <t>Contrast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clusterization Counting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grakn Forces 2020</t>
+  </si>
+  <si>
+    <t>最小生成树+DP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reachable Towns</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL Contest 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -705,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H39"/>
+  <dimension ref="A2:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1271,6 +1293,40 @@
       </c>
       <c r="E39" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
